--- a/MMORPG-Demo/MMOServer/src/main/resources/static/SceneEntity.xlsx
+++ b/MMORPG-Demo/MMOServer/src/main/resources/static/SceneEntity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\MMORPG-Demo\MMOServer\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2A2FBA-A969-4B2B-8C22-877D3C0A9198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE1AABF-CFAB-4CF9-9976-7076351B419E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -233,15 +233,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -252,7 +243,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -266,14 +257,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -556,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -572,11 +555,9 @@
     <col min="6" max="6" width="55.33203125" customWidth="1"/>
     <col min="7" max="7" width="12.77734375" customWidth="1"/>
     <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
-    <col min="10" max="10" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -601,10 +582,8 @@
       <c r="H1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="8"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -629,10 +608,8 @@
       <c r="H2" s="3">
         <v>1</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -657,10 +634,8 @@
       <c r="H3" s="3">
         <v>1</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -685,10 +660,8 @@
       <c r="H4" s="3">
         <v>2</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -713,10 +686,8 @@
       <c r="H5" s="3">
         <v>2</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -741,10 +712,8 @@
       <c r="H6" s="3">
         <v>1</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -769,10 +738,8 @@
       <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -795,10 +762,8 @@
       <c r="H8" s="3">
         <v>2</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -821,10 +786,8 @@
       <c r="H9" s="3">
         <v>2</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -849,10 +812,8 @@
       <c r="H10" s="3">
         <v>2</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -877,10 +838,8 @@
       <c r="H11" s="3">
         <v>2</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -905,8 +864,6 @@
       <c r="H12" s="3">
         <v>2</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
